--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/13/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/13/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0899964</v>
       </c>
       <c r="B5" t="n">
-        <v>3.31913</v>
+        <v>3.11226</v>
       </c>
       <c r="C5" t="n">
-        <v>3319.13</v>
+        <v>3112.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.120005</v>
+        <v>0.119983</v>
       </c>
       <c r="B6" t="n">
-        <v>4.25807</v>
+        <v>3.61285</v>
       </c>
       <c r="C6" t="n">
-        <v>4258.07</v>
+        <v>3612.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.150013</v>
+        <v>0.149991</v>
       </c>
       <c r="B7" t="n">
-        <v>5.22</v>
+        <v>4.05759</v>
       </c>
       <c r="C7" t="n">
-        <v>5220</v>
+        <v>4057.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.179965</v>
+        <v>0.179943</v>
       </c>
       <c r="B8" t="n">
-        <v>5.698600000000001</v>
+        <v>4.48832</v>
       </c>
       <c r="C8" t="n">
-        <v>5698.6</v>
+        <v>4488.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.209917</v>
+        <v>0.209895</v>
       </c>
       <c r="B9" t="n">
-        <v>6.2076</v>
+        <v>4.81346</v>
       </c>
       <c r="C9" t="n">
-        <v>6207.6</v>
+        <v>4813.46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.23987</v>
+        <v>0.239847</v>
       </c>
       <c r="B10" t="n">
-        <v>6.60833</v>
+        <v>5.0875</v>
       </c>
       <c r="C10" t="n">
-        <v>6608.33</v>
+        <v>5087.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.269786</v>
+        <v>0.269761</v>
       </c>
       <c r="B11" t="n">
-        <v>6.88326</v>
+        <v>5.31555</v>
       </c>
       <c r="C11" t="n">
-        <v>6883.26</v>
+        <v>5315.55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.299687</v>
+        <v>0.299662</v>
       </c>
       <c r="B12" t="n">
-        <v>7.14667</v>
+        <v>5.538220000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>7146.67</v>
+        <v>5538.22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.329583</v>
+        <v>0.329563</v>
       </c>
       <c r="B13" t="n">
-        <v>7.345020000000001</v>
+        <v>5.709090000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>7345.02</v>
+        <v>5709.09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.359484</v>
+        <v>0.359464</v>
       </c>
       <c r="B14" t="n">
-        <v>7.53751</v>
+        <v>5.86542</v>
       </c>
       <c r="C14" t="n">
-        <v>7537.51</v>
+        <v>5865.42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.389385</v>
+        <v>0.389366</v>
       </c>
       <c r="B15" t="n">
-        <v>7.69397</v>
+        <v>6.01322</v>
       </c>
       <c r="C15" t="n">
-        <v>7693.97</v>
+        <v>6013.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.419287</v>
+        <v>0.419267</v>
       </c>
       <c r="B16" t="n">
-        <v>7.83336</v>
+        <v>6.1511</v>
       </c>
       <c r="C16" t="n">
-        <v>7833.36</v>
+        <v>6151.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.449188</v>
+        <v>0.449168</v>
       </c>
       <c r="B17" t="n">
-        <v>7.96579</v>
+        <v>6.26453</v>
       </c>
       <c r="C17" t="n">
-        <v>7965.79</v>
+        <v>6264.53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.479089</v>
+        <v>0.479069</v>
       </c>
       <c r="B18" t="n">
-        <v>8.09172</v>
+        <v>6.38754</v>
       </c>
       <c r="C18" t="n">
-        <v>8091.72</v>
+        <v>6387.54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5089900000000001</v>
+        <v>0.50897</v>
       </c>
       <c r="B19" t="n">
-        <v>8.18676</v>
+        <v>6.49875</v>
       </c>
       <c r="C19" t="n">
-        <v>8186.76</v>
+        <v>6498.75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.538891</v>
+        <v>0.538871</v>
       </c>
       <c r="B20" t="n">
-        <v>8.296389999999999</v>
+        <v>6.59223</v>
       </c>
       <c r="C20" t="n">
-        <v>8296.389999999999</v>
+        <v>6592.23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.568792</v>
+        <v>0.5687720000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>8.37828</v>
+        <v>6.682770000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>8378.280000000001</v>
+        <v>6682.77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.5988059999999999</v>
+        <v>0.598786</v>
       </c>
       <c r="B22" t="n">
-        <v>8.46682</v>
+        <v>6.771020000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>8466.82</v>
+        <v>6771.02</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.628946</v>
+        <v>0.628926</v>
       </c>
       <c r="B23" t="n">
-        <v>8.55152</v>
+        <v>6.8566</v>
       </c>
       <c r="C23" t="n">
-        <v>8551.52</v>
+        <v>6856.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.659091</v>
+        <v>0.659071</v>
       </c>
       <c r="B24" t="n">
-        <v>8.621650000000001</v>
+        <v>6.93784</v>
       </c>
       <c r="C24" t="n">
-        <v>8621.65</v>
+        <v>6937.84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.689231</v>
+        <v>0.689211</v>
       </c>
       <c r="B25" t="n">
-        <v>8.68919</v>
+        <v>7.014</v>
       </c>
       <c r="C25" t="n">
-        <v>8689.190000000001</v>
+        <v>7014</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.719372</v>
+        <v>0.719352</v>
       </c>
       <c r="B26" t="n">
-        <v>8.75432</v>
+        <v>7.085560000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>8754.32</v>
+        <v>7085.56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.749516</v>
+        <v>0.7494960000000001</v>
       </c>
       <c r="B27" t="n">
-        <v>8.816549999999999</v>
+        <v>7.15376</v>
       </c>
       <c r="C27" t="n">
-        <v>8816.549999999999</v>
+        <v>7153.76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.779657</v>
+        <v>0.779637</v>
       </c>
       <c r="B28" t="n">
-        <v>8.87547</v>
+        <v>7.22011</v>
       </c>
       <c r="C28" t="n">
-        <v>8875.469999999999</v>
+        <v>7220.11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.809801</v>
+        <v>0.809777</v>
       </c>
       <c r="B29" t="n">
-        <v>8.930910000000001</v>
+        <v>7.28557</v>
       </c>
       <c r="C29" t="n">
-        <v>8930.91</v>
+        <v>7285.57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.839942</v>
+        <v>0.8399219999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>8.98344</v>
+        <v>7.348640000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>8983.440000000001</v>
+        <v>7348.64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.870082</v>
+        <v>0.870062</v>
       </c>
       <c r="B31" t="n">
-        <v>9.03384</v>
+        <v>7.40542</v>
       </c>
       <c r="C31" t="n">
-        <v>9033.84</v>
+        <v>7405.42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.900227</v>
+        <v>0.900207</v>
       </c>
       <c r="B32" t="n">
-        <v>9.08282</v>
+        <v>7.45669</v>
       </c>
       <c r="C32" t="n">
-        <v>9082.82</v>
+        <v>7456.69</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9303670000000001</v>
+        <v>0.930347</v>
       </c>
       <c r="B33" t="n">
-        <v>9.12992</v>
+        <v>7.51</v>
       </c>
       <c r="C33" t="n">
-        <v>9129.92</v>
+        <v>7510</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.960507</v>
+        <v>0.960487</v>
       </c>
       <c r="B34" t="n">
-        <v>9.172969999999999</v>
+        <v>7.564979999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>9172.969999999999</v>
+        <v>7564.98</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.990652</v>
+        <v>0.990632</v>
       </c>
       <c r="B35" t="n">
-        <v>9.211410000000001</v>
+        <v>7.612220000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>9211.41</v>
+        <v>7612.22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.02079</v>
+        <v>1.02077</v>
       </c>
       <c r="B36" t="n">
-        <v>9.250249999999999</v>
+        <v>7.65753</v>
       </c>
       <c r="C36" t="n">
-        <v>9250.25</v>
+        <v>7657.53</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.05093</v>
+        <v>1.05091</v>
       </c>
       <c r="B37" t="n">
-        <v>9.290100000000001</v>
+        <v>7.70736</v>
       </c>
       <c r="C37" t="n">
-        <v>9290.1</v>
+        <v>7707.36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.08108</v>
+        <v>1.08106</v>
       </c>
       <c r="B38" t="n">
-        <v>9.324680000000001</v>
+        <v>7.748130000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>9324.68</v>
+        <v>7748.13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.11122</v>
+        <v>1.1112</v>
       </c>
       <c r="B39" t="n">
-        <v>9.35765</v>
+        <v>7.79198</v>
       </c>
       <c r="C39" t="n">
-        <v>9357.65</v>
+        <v>7791.98</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.14136</v>
+        <v>1.14134</v>
       </c>
       <c r="B40" t="n">
-        <v>9.392530000000001</v>
+        <v>7.83415</v>
       </c>
       <c r="C40" t="n">
-        <v>9392.530000000001</v>
+        <v>7834.15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.1715</v>
+        <v>1.17148</v>
       </c>
       <c r="B41" t="n">
-        <v>9.422270000000001</v>
+        <v>7.871840000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>9422.27</v>
+        <v>7871.84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.20164</v>
+        <v>1.20162</v>
       </c>
       <c r="B42" t="n">
-        <v>9.452809999999999</v>
+        <v>7.91329</v>
       </c>
       <c r="C42" t="n">
-        <v>9452.809999999999</v>
+        <v>7913.29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.23179</v>
+        <v>1.23177</v>
       </c>
       <c r="B43" t="n">
-        <v>9.482010000000001</v>
+        <v>7.94782</v>
       </c>
       <c r="C43" t="n">
-        <v>9482.01</v>
+        <v>7947.82</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.26193</v>
+        <v>1.26191</v>
       </c>
       <c r="B44" t="n">
-        <v>9.50858</v>
+        <v>7.987010000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>9508.58</v>
+        <v>7987.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.29207</v>
+        <v>1.29205</v>
       </c>
       <c r="B45" t="n">
-        <v>9.536200000000001</v>
+        <v>8.01965</v>
       </c>
       <c r="C45" t="n">
-        <v>9536.200000000001</v>
+        <v>8019.65</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.32221</v>
+        <v>1.32219</v>
       </c>
       <c r="B46" t="n">
-        <v>9.56015</v>
+        <v>8.055859999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>9560.15</v>
+        <v>8055.86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.35235</v>
+        <v>1.35233</v>
       </c>
       <c r="B47" t="n">
-        <v>9.585469999999999</v>
+        <v>8.08741</v>
       </c>
       <c r="C47" t="n">
-        <v>9585.469999999999</v>
+        <v>8087.41</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.38249</v>
+        <v>1.38247</v>
       </c>
       <c r="B48" t="n">
-        <v>9.60765</v>
+        <v>8.119960000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>9607.65</v>
+        <v>8119.96</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.41264</v>
+        <v>1.41262</v>
       </c>
       <c r="B49" t="n">
-        <v>9.63043</v>
+        <v>8.15194</v>
       </c>
       <c r="C49" t="n">
-        <v>9630.43</v>
+        <v>8151.94</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.44278</v>
+        <v>1.44276</v>
       </c>
       <c r="B50" t="n">
-        <v>9.651389999999999</v>
+        <v>8.18031</v>
       </c>
       <c r="C50" t="n">
-        <v>9651.389999999999</v>
+        <v>8180.31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.47292</v>
+        <v>1.4729</v>
       </c>
       <c r="B51" t="n">
-        <v>9.67165</v>
+        <v>8.211870000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>9671.65</v>
+        <v>8211.870000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.50306</v>
+        <v>1.50304</v>
       </c>
       <c r="B52" t="n">
-        <v>9.691540000000002</v>
+        <v>8.239100000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>9691.540000000001</v>
+        <v>8239.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.5332</v>
+        <v>1.53318</v>
       </c>
       <c r="B53" t="n">
-        <v>9.70941</v>
+        <v>8.26679</v>
       </c>
       <c r="C53" t="n">
-        <v>9709.41</v>
+        <v>8266.790000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.56335</v>
+        <v>1.56333</v>
       </c>
       <c r="B54" t="n">
-        <v>9.727780000000001</v>
+        <v>8.295299999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>9727.780000000001</v>
+        <v>8295.299999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.59349</v>
+        <v>1.59347</v>
       </c>
       <c r="B55" t="n">
-        <v>9.744520000000001</v>
+        <v>8.32005</v>
       </c>
       <c r="C55" t="n">
-        <v>9744.52</v>
+        <v>8320.049999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.62363</v>
+        <v>1.62361</v>
       </c>
       <c r="B56" t="n">
-        <v>9.760440000000001</v>
+        <v>8.34577</v>
       </c>
       <c r="C56" t="n">
-        <v>9760.440000000001</v>
+        <v>8345.77</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.65377</v>
+        <v>1.65375</v>
       </c>
       <c r="B57" t="n">
-        <v>9.776299999999999</v>
+        <v>8.371840000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>9776.299999999999</v>
+        <v>8371.84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.68391</v>
+        <v>1.68389</v>
       </c>
       <c r="B58" t="n">
-        <v>9.790700000000001</v>
+        <v>8.39503</v>
       </c>
       <c r="C58" t="n">
-        <v>9790.700000000001</v>
+        <v>8395.030000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.71405</v>
+        <v>1.71404</v>
       </c>
       <c r="B59" t="n">
-        <v>9.80434</v>
+        <v>8.418090000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>9804.34</v>
+        <v>8418.09</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.74378</v>
+        <v>1.74418</v>
       </c>
       <c r="B60" t="n">
-        <v>9.817770000000001</v>
+        <v>8.442030000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>9817.77</v>
+        <v>8442.030000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.77351</v>
+        <v>1.77432</v>
       </c>
       <c r="B61" t="n">
-        <v>9.830260000000001</v>
+        <v>8.46439</v>
       </c>
       <c r="C61" t="n">
-        <v>9830.26</v>
+        <v>8464.389999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.80324</v>
+        <v>1.80446</v>
       </c>
       <c r="B62" t="n">
-        <v>9.84177</v>
+        <v>8.485139999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>9841.77</v>
+        <v>8485.139999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.83296</v>
+        <v>1.8346</v>
       </c>
       <c r="B63" t="n">
-        <v>9.852819999999999</v>
+        <v>8.50614</v>
       </c>
       <c r="C63" t="n">
-        <v>9852.82</v>
+        <v>8506.139999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.86269</v>
+        <v>1.86475</v>
       </c>
       <c r="B64" t="n">
-        <v>9.863370000000002</v>
+        <v>8.527420000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>9863.370000000001</v>
+        <v>8527.42</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.89242</v>
+        <v>1.89489</v>
       </c>
       <c r="B65" t="n">
-        <v>9.873190000000001</v>
+        <v>8.54762</v>
       </c>
       <c r="C65" t="n">
-        <v>9873.190000000001</v>
+        <v>8547.620000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.92215</v>
+        <v>1.92503</v>
       </c>
       <c r="B66" t="n">
-        <v>9.882200000000001</v>
+        <v>8.566510000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>9882.200000000001</v>
+        <v>8566.51</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.95188</v>
+        <v>1.95517</v>
       </c>
       <c r="B67" t="n">
-        <v>9.890559999999999</v>
+        <v>8.58506</v>
       </c>
       <c r="C67" t="n">
-        <v>9890.559999999999</v>
+        <v>8585.059999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.9819</v>
+        <v>1.98532</v>
       </c>
       <c r="B68" t="n">
-        <v>9.898610000000001</v>
+        <v>8.603730000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>9898.610000000001</v>
+        <v>8603.73</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.01229</v>
+        <v>2.01525</v>
       </c>
       <c r="B69" t="n">
-        <v>9.906169999999999</v>
+        <v>8.62214</v>
       </c>
       <c r="C69" t="n">
-        <v>9906.17</v>
+        <v>8622.139999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.04302</v>
+        <v>2.04498</v>
       </c>
       <c r="B70" t="n">
-        <v>9.913</v>
+        <v>8.639749999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>9913</v>
+        <v>8639.75</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.07363</v>
+        <v>2.07471</v>
       </c>
       <c r="B71" t="n">
-        <v>9.919110000000002</v>
+        <v>8.656459999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>9919.110000000001</v>
+        <v>8656.459999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.10349</v>
+        <v>2.10444</v>
       </c>
       <c r="B72" t="n">
-        <v>9.92455</v>
+        <v>8.672600000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>9924.549999999999</v>
+        <v>8672.6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.13336</v>
+        <v>2.13417</v>
       </c>
       <c r="B73" t="n">
-        <v>9.92942</v>
+        <v>8.68848</v>
       </c>
       <c r="C73" t="n">
-        <v>9929.42</v>
+        <v>8688.48</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.16323</v>
+        <v>2.16389</v>
       </c>
       <c r="B74" t="n">
-        <v>9.93369</v>
+        <v>8.704120000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>9933.690000000001</v>
+        <v>8704.120000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.19309</v>
+        <v>2.19362</v>
       </c>
       <c r="B75" t="n">
-        <v>9.937299999999999</v>
+        <v>8.719430000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>9937.299999999999</v>
+        <v>8719.43</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.22296</v>
+        <v>2.22335</v>
       </c>
       <c r="B76" t="n">
-        <v>9.94027</v>
+        <v>8.734249999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>9940.27</v>
+        <v>8734.25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.25282</v>
+        <v>2.25308</v>
       </c>
       <c r="B77" t="n">
-        <v>9.942600000000001</v>
+        <v>8.748530000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>9942.6</v>
+        <v>8748.530000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.28269</v>
+        <v>2.28281</v>
       </c>
       <c r="B78" t="n">
-        <v>9.944270000000001</v>
+        <v>8.7623</v>
       </c>
       <c r="C78" t="n">
-        <v>9944.27</v>
+        <v>8762.299999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.31256</v>
+        <v>2.31254</v>
       </c>
       <c r="B79" t="n">
-        <v>9.94524</v>
+        <v>8.775650000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>9945.24</v>
+        <v>8775.65</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.34242</v>
+        <v>2.34227</v>
       </c>
       <c r="B80" t="n">
-        <v>9.945590000000001</v>
+        <v>8.78848</v>
       </c>
       <c r="C80" t="n">
-        <v>9945.59</v>
+        <v>8788.48</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.37229</v>
+        <v>2.37287</v>
       </c>
       <c r="B81" t="n">
-        <v>9.94524</v>
+        <v>8.801299999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>9945.24</v>
+        <v>8801.299999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.40216</v>
+        <v>2.40359</v>
       </c>
       <c r="B82" t="n">
-        <v>9.94422</v>
+        <v>8.813840000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>9944.219999999999</v>
+        <v>8813.84</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.43167</v>
+        <v>2.4343</v>
       </c>
       <c r="B83" t="n">
-        <v>9.942500000000001</v>
+        <v>8.826040000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>9942.5</v>
+        <v>8826.040000000001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.46069</v>
+        <v>2.46502</v>
       </c>
       <c r="B84" t="n">
-        <v>9.939969999999999</v>
+        <v>8.83784</v>
       </c>
       <c r="C84" t="n">
-        <v>9939.969999999999</v>
+        <v>8837.84</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.4897</v>
+        <v>2.49575</v>
       </c>
       <c r="B85" t="n">
-        <v>9.936669999999999</v>
+        <v>8.849299999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>9936.67</v>
+        <v>8849.299999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.51871</v>
+        <v>2.52646</v>
       </c>
       <c r="B86" t="n">
-        <v>9.93266</v>
+        <v>8.86032</v>
       </c>
       <c r="C86" t="n">
-        <v>9932.66</v>
+        <v>8860.32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.54773</v>
+        <v>2.55718</v>
       </c>
       <c r="B87" t="n">
-        <v>9.927950000000001</v>
+        <v>8.870979999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>9927.950000000001</v>
+        <v>8870.98</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.57674</v>
+        <v>2.5879</v>
       </c>
       <c r="B88" t="n">
-        <v>9.92252</v>
+        <v>8.881260000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>9922.52</v>
+        <v>8881.26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.60575</v>
+        <v>2.61838</v>
       </c>
       <c r="B89" t="n">
-        <v>9.916350000000001</v>
+        <v>8.8911</v>
       </c>
       <c r="C89" t="n">
-        <v>9916.35</v>
+        <v>8891.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.63477</v>
+        <v>2.64825</v>
       </c>
       <c r="B90" t="n">
-        <v>9.909420000000001</v>
+        <v>8.900590000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>9909.42</v>
+        <v>8900.59</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.66378</v>
+        <v>2.67811</v>
       </c>
       <c r="B91" t="n">
-        <v>9.9018</v>
+        <v>8.909700000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>9901.799999999999</v>
+        <v>8909.700000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.69279</v>
+        <v>2.70798</v>
       </c>
       <c r="B92" t="n">
-        <v>9.893379999999999</v>
+        <v>8.91849</v>
       </c>
       <c r="C92" t="n">
-        <v>9893.379999999999</v>
+        <v>8918.49</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.72181</v>
+        <v>2.73785</v>
       </c>
       <c r="B93" t="n">
-        <v>9.884170000000001</v>
+        <v>8.92689</v>
       </c>
       <c r="C93" t="n">
-        <v>9884.17</v>
+        <v>8926.889999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.75082</v>
+        <v>2.76772</v>
       </c>
       <c r="B94" t="n">
-        <v>9.87421</v>
+        <v>8.93493</v>
       </c>
       <c r="C94" t="n">
-        <v>9874.209999999999</v>
+        <v>8934.93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.77983</v>
+        <v>2.79758</v>
       </c>
       <c r="B95" t="n">
-        <v>9.863379999999999</v>
+        <v>8.942629999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>9863.379999999999</v>
+        <v>8942.629999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.80885</v>
+        <v>2.82745</v>
       </c>
       <c r="B96" t="n">
-        <v>9.851760000000001</v>
+        <v>8.94999</v>
       </c>
       <c r="C96" t="n">
-        <v>9851.76</v>
+        <v>8949.99</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.83786</v>
+        <v>2.85732</v>
       </c>
       <c r="B97" t="n">
-        <v>9.839290000000002</v>
+        <v>8.956940000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>9839.290000000001</v>
+        <v>8956.940000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.86687</v>
+        <v>2.88718</v>
       </c>
       <c r="B98" t="n">
-        <v>9.825809999999999</v>
+        <v>8.963610000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>9825.809999999999</v>
+        <v>8963.610000000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.89674</v>
+        <v>2.91705</v>
       </c>
       <c r="B99" t="n">
-        <v>9.81021</v>
+        <v>8.96988</v>
       </c>
       <c r="C99" t="n">
-        <v>9810.209999999999</v>
+        <v>8969.879999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.92782</v>
+        <v>2.94692</v>
       </c>
       <c r="B100" t="n">
-        <v>9.792920000000001</v>
+        <v>8.97587</v>
       </c>
       <c r="C100" t="n">
-        <v>9792.92</v>
+        <v>8975.870000000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.95891</v>
+        <v>2.97678</v>
       </c>
       <c r="B101" t="n">
-        <v>9.774709999999999</v>
+        <v>8.981479999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>9774.709999999999</v>
+        <v>8981.48</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.98999</v>
+        <v>3.00665</v>
       </c>
       <c r="B102" t="n">
-        <v>9.755409999999999</v>
+        <v>8.986780000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>9755.41</v>
+        <v>8986.780000000001</v>
       </c>
     </row>
   </sheetData>
